--- a/data/MEDICALEXAMSSYMPTOMS.xlsx
+++ b/data/MEDICALEXAMSSYMPTOMS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TN3Vocab\EnglishTN3Vocab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE6153F0-25D5-4677-9649-98BD73D3B912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5828BCBC-5F85-4968-BB12-9A805A6F683A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B9092F5-B817-409A-89A0-77C8DBB3A927}"/>
   </bookViews>
@@ -25,29 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
-  <si>
-    <t>Checkup = examination</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>khám sức khỏe tổng quát</t>
   </si>
   <si>
-    <t>a shot = an injection</t>
-  </si>
-  <si>
     <t>một mũi tiêm</t>
   </si>
   <si>
-    <t>an EKG / an electrocardiogram</t>
-  </si>
-  <si>
     <t>điện tâm đồ</t>
   </si>
   <si>
-    <t>an X-ray (n)</t>
-  </si>
-  <si>
     <t>chụp X quang</t>
   </si>
   <si>
@@ -102,9 +90,6 @@
     <t>I've been vomiting</t>
   </si>
   <si>
-    <t>Tôi đã bị nôn (liên tục/gần đây)</t>
-  </si>
-  <si>
     <t>I've been coughing</t>
   </si>
   <si>
@@ -117,9 +102,6 @@
     <t>Tôi đã hắt hơi</t>
   </si>
   <si>
-    <t>I've been wheezing (v)</t>
-  </si>
-  <si>
     <t>Thở khò khè</t>
   </si>
   <si>
@@ -147,13 +129,471 @@
     <t>Tôi bị đau ở bụng</t>
   </si>
   <si>
-    <t>Từ vựng / Cụm từ (English)</t>
-  </si>
-  <si>
-    <t>Nghĩa / Giải thích (Vietnamese/English)</t>
-  </si>
-  <si>
-    <t>Examples</t>
+    <t>Từ vựng / Cụm từ</t>
+  </si>
+  <si>
+    <t>Nghĩa (Vietnamese)</t>
+  </si>
+  <si>
+    <t>Examples (Ví dụ)</t>
+  </si>
+  <si>
+    <t>Checkup / examination</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I go for a dental </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>checkup</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> every six months.</t>
+    </r>
+  </si>
+  <si>
+    <t>a shot / an injection</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The baby cried after getting </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a shot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>an EKG / electrocardiogram</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The doctor ordered </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>an EKG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> to check his heart.</t>
+    </r>
+  </si>
+  <si>
+    <t>an X-ray</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>X-ray</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> showed a broken bone.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You need to fast before the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>blood test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It's too noisy, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I have a headache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I ate too much and now </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I have a stomachache</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can't sing because </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I have a sore throat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fever is one of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>symptoms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of the flu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I stood up too fast and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I feel dizzy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Since I haven't eaten, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I feel weak</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After running, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I feel short of breath</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Tôi đã bị nôn</t>
+  </si>
+  <si>
+    <r>
+      <t>I've been vomiting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> since last night.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I've been coughing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> a lot lately.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It's dusty here, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I've been sneezing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> all day.</t>
+    </r>
+  </si>
+  <si>
+    <t>I've been wheezing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He has asthma so </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I've been wheezing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Call 911 if </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I have pain in my chest</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I have pain in my hip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> when I walk.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After the fall, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I have pain in my ribs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I have pain in my stomach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> after eating spicy food.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -169,17 +609,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,17 +639,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -217,13 +657,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,207 +981,247 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F81689-DE71-414D-B2F3-1DC1289606B6}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" ht="39" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
